--- a/UnityBasic2/Assets/Data/Data.xlsx
+++ b/UnityBasic2/Assets/Data/Data.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Project\ProjectBS\ProjectBS\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82102\Desktop\git\UnityBasic2\UnityBasic2\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5624E0-82EA-45F1-8ED0-E4766F84D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9343D862-4371-4D7A-B4BA-88996CCC1A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4770" yWindow="7080" windowWidth="21720" windowHeight="16365" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Test" sheetId="3" r:id="rId1"/>
+    <sheet name="Dialogue" sheetId="1" r:id="rId2"/>
+    <sheet name="Character" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,17 +27,157 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Name_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbno</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인미나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인미나_기본표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검정_기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤웅한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤웅한_기본표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마동석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안직원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Security guy</t>
+  </si>
+  <si>
+    <t>마동석_기본표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나인범</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수석직원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oldman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나인범_기본표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다들 여기서 뭐하고 있는거죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG3</t>
+  </si>
+  <si>
+    <t>BG4</t>
+  </si>
+  <si>
+    <t>BG5</t>
+  </si>
+  <si>
+    <t>여기서 뭘하던 무슨상관?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상관 있으니까 물어보는건데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니 그니까 그걸 왜 물어보냐고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음부터 그렇게 말했어야지.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,8 +221,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -360,30 +505,534 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D05349-13BC-4D76-811E-E80F457F3D20}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="64.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10101</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10102</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10102</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10102</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10102</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C507ED4-80CE-4F7B-BE19-648DDB7D2C52}">
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="41.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>10101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>10201</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>10301</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10401</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>10501</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
